--- a/case study propionate/sbml_screening/missing_metabolites.xlsx
+++ b/case study propionate/sbml_screening/missing_metabolites.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\case study propionate\sbml_screening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E71441-B8A5-4C96-8AF9-08903A40311B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB92532-343E-4766-9DD0-900E3D94EE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -526,7 +539,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I12:J13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
